--- a/cheque_data_output.xlsx
+++ b/cheque_data_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Bank Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>IFSC Code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -458,20 +463,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Axis Bank.jpg</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>AXIS BANK</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>UTIB0000426</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>130354.7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>130354.7</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>06-09-2019</t>
         </is>
@@ -480,42 +488,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Canara Bank.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>CANARA BANK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>CNRB0002854</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>126888.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>03-09-2019</t>
-        </is>
-      </c>
+      <c r="D3" t="n">
+        <v>126888</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ICICI bank.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>ICICI BANK</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ICIC0006306</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>56476.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+          <t>ICIC0006308</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>56476</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>05-09-2019</t>
         </is>
@@ -524,20 +534,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Syndicate bank.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>SYNDICATE BANK</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SYNB0003011</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>SYNG000S0TT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>5407.5</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>30-01-2019</t>
         </is>

--- a/cheque_data_output.xlsx
+++ b/cheque_data_output.xlsx
@@ -504,7 +504,11 @@
       <c r="D3" t="n">
         <v>126888</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>03-09-2019</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/cheque_data_output.xlsx
+++ b/cheque_data_output.xlsx
@@ -476,8 +476,10 @@
           <t>UTIB0000426</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>130354.7</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130354.7</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,8 +503,10 @@
           <t>CNRB0002854</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>126888</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126888.0</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,8 +530,10 @@
           <t>ICIC0006308</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>56476</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56476.0</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
